--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4062167.164219609</v>
+        <v>4059790.537272243</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078201</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>44.08107680555614</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -716,7 +716,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>18.36797920751871</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>188.4649415276189</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>108.0165900216656</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>96.26276321421507</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>13.18609391401996</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1111,16 +1111,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>57.17777278646734</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>84.77350972403111</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8165095851517981</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542813</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>47.65883542934931</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695742</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701333</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541129</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701329</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>171.6912157329571</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633909</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>858.9396732896246</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>858.9396732896246</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>858.9396732896246</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>473.1514206913803</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>466.2059199421769</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4325,7 +4325,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1622.544763526516</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1249.079005265436</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>858.9396732896246</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4389,37 +4389,37 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
         <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>682.7064461033928</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C4" t="n">
-        <v>682.7064461033928</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>532.589806691057</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>384.6767131086639</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>237.7867656107535</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>69.80030091903211</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.34446183165</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>864.3549109336325</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>864.3549109336325</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1688.365042002428</v>
+        <v>603.6036480119269</v>
       </c>
       <c r="C5" t="n">
-        <v>1688.365042002428</v>
+        <v>494.4959813233758</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4565,16 +4565,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.104214042362</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y5" t="n">
-        <v>2074.96488206655</v>
+        <v>990.2034880760486</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4650,22 +4650,22 @@
         <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>664.1529317523638</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
         <v>51.2467865680031</v>
@@ -4723,7 +4723,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,10 +4738,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.34930177307</v>
+        <v>927.7205539329316</v>
       </c>
       <c r="V7" t="n">
-        <v>1124.34930177307</v>
+        <v>673.0360657270447</v>
       </c>
       <c r="W7" t="n">
-        <v>1124.34930177307</v>
+        <v>383.6188956900841</v>
       </c>
       <c r="X7" t="n">
-        <v>1066.593975726134</v>
+        <v>383.6188956900841</v>
       </c>
       <c r="Y7" t="n">
-        <v>845.8013965826035</v>
+        <v>383.6188956900841</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>473.8970375929177</v>
+        <v>884.184933127857</v>
       </c>
       <c r="C8" t="n">
-        <v>473.8970375929177</v>
+        <v>884.184933127857</v>
       </c>
       <c r="D8" t="n">
-        <v>473.8970375929177</v>
+        <v>525.9192345211065</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2561.514571243436</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2307.933510507616</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>1976.870623164045</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.101967893931</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1250.636209632851</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y8" t="n">
-        <v>860.4968776570395</v>
+        <v>1270.784773191979</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4881,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657494</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378425</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255067</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431136</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452032</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
         <v>51.2467865680031</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485138</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>570.452659242627</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>281.0354892056664</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959891</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5021,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,7 +5042,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5060,16 +5060,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5258,31 +5258,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5294,28 +5294,28 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591808</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191923</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349509</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061502</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616109</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5419,28 +5419,28 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,13 +5528,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,34 +5768,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2204.627616639638</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6212,64 +6212,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745235</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338367</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6452,61 +6452,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6549,19 +6549,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348531</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438179</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797183</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745235</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>265.0304328515144</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.591198401904</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8301,10 +8301,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.9393975111055</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>30.3692565058945</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.18682368252064</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492422</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>45.71423459433115</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604371</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.7698642834</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.7698642835</v>
-      </c>
       <c r="E2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="F2" t="n">
         <v>807146.5996900059</v>
       </c>
       <c r="G2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="H2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="J2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26424,40 +26424,40 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707413</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707468</v>
+        <v>6897.424496707321</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707394</v>
+        <v>6897.424496707384</v>
       </c>
       <c r="I4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707399</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707432</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707423</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707452</v>
+        <v>6897.424496707352</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707352</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-518557.5129831061</v>
+        <v>-518557.512983106</v>
       </c>
       <c r="C6" t="n">
-        <v>596194.2705928138</v>
+        <v>596194.2705928137</v>
       </c>
       <c r="D6" t="n">
-        <v>596194.2705928138</v>
+        <v>596194.2705928136</v>
       </c>
       <c r="E6" t="n">
-        <v>191641.2037448456</v>
+        <v>191606.4658194105</v>
       </c>
       <c r="F6" t="n">
-        <v>699126.6453693917</v>
+        <v>699091.9074439559</v>
       </c>
       <c r="G6" t="n">
-        <v>699126.6453693917</v>
+        <v>699091.9074439557</v>
       </c>
       <c r="H6" t="n">
-        <v>699126.6453693918</v>
+        <v>699091.9074439558</v>
       </c>
       <c r="I6" t="n">
-        <v>699126.6453693917</v>
+        <v>699091.9074439562</v>
       </c>
       <c r="J6" t="n">
-        <v>531521.4675594091</v>
+        <v>531486.7296339737</v>
       </c>
       <c r="K6" t="n">
-        <v>699126.6453693919</v>
+        <v>699091.9074439562</v>
       </c>
       <c r="L6" t="n">
-        <v>699126.6453693917</v>
+        <v>699091.9074439559</v>
       </c>
       <c r="M6" t="n">
-        <v>566519.351640465</v>
+        <v>566484.6137150293</v>
       </c>
       <c r="N6" t="n">
-        <v>699126.6453693917</v>
+        <v>699091.9074439561</v>
       </c>
       <c r="O6" t="n">
-        <v>699126.6453693914</v>
+        <v>699091.9074439558</v>
       </c>
       <c r="P6" t="n">
-        <v>699126.6453693918</v>
+        <v>699091.907443956</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7844173726986</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>367.4666259673978</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>128.8835299476101</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>30.11971182447584</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>257.2563017493419</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27673,13 +27673,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>273.468337464254</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>166.6458862679173</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,7 +27822,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>168.5318826025698</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>297.1568603482307</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>205.8416753950819</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.325851919376</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>178.0508199596878</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28327,22 +28327,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,22 +28375,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28810,10 +28810,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2.025899448199198e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>431.3680753731359</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319862</v>
+        <v>277.2922978908111</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742437</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>750.6021172789107</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>485.927610870024</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,28 +33032,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.410447117911</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,37 +33260,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558023</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33500,34 +33500,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33740,31 +33740,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>290.6810969936921</v>
+        <v>342.4905264542646</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>562.7107934893646</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>553.5225306839445</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>535.6747904601048</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>584.5244463807089</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>436.6197581489557</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>397.300588787935</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35270,10 +35270,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>297.3936679588056</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35738,16 +35738,16 @@
         <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875417</v>
+        <v>134.6960534463666</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>619.2604051955774</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>351.9532034556937</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394708</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113578</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>159.3393849103587</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
